--- a/Каталоги_запчастей_ПроземлеАгро.xlsx
+++ b/Каталоги_запчастей_ПроземлеАгро.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="240">
   <si>
     <t>Группа техники</t>
   </si>
@@ -64,7 +64,37 @@
     <t>Weidemann</t>
   </si>
   <si>
-    <t>Кормораздатчики (Бобруйскагромаш)</t>
+    <t>Гомсельмаш (КВК / КЗС)</t>
+  </si>
+  <si>
+    <t>МТЗ, комбайны, навесная техника</t>
+  </si>
+  <si>
+    <t>Сельхозтехника (разная)</t>
+  </si>
+  <si>
+    <t>МТЗ (узлы БЗТДиА)</t>
+  </si>
+  <si>
+    <t>Импортная техника (John Deere)</t>
+  </si>
+  <si>
+    <t>МТЗ, МАЗ, Амкодор</t>
+  </si>
+  <si>
+    <t>Минитрактора и навесная техника</t>
+  </si>
+  <si>
+    <t>Амкодор, МТЗ, дорожно-строительная техника</t>
+  </si>
+  <si>
+    <t>Импортная техника (Quivogne)</t>
+  </si>
+  <si>
+    <t>Импортная техника (Joskin)</t>
+  </si>
+  <si>
+    <t>Мотоблоки и минитракторы</t>
   </si>
   <si>
     <t>Беларус-82.1/82.2, 920/920.3/920.270, 952.2/952.3, 1221/1221В2-9, 1523, 3022/3022 ДЦ.1, 320/320.4, 1502.01</t>
@@ -154,7 +184,79 @@
     <t>Weidemann 3080 RL50 LPT</t>
   </si>
   <si>
-    <t>Измельчитель-смеситель-раздатчик кормов вертикальный ИСРВ-12</t>
+    <t>КВК-800-12 / 16 / 36, КЗС-1218 и др. комбайны Гомсельмаш</t>
+  </si>
+  <si>
+    <t>МТЗ-80/82, Беларус-82.1/82.2/920/952 и др., комбайны, посевная и почвообработка</t>
+  </si>
+  <si>
+    <t>Плуги, бороны, культиваторы, техника Гомсельмаш, Ростсельмаш и др.</t>
+  </si>
+  <si>
+    <t>Тракторы, комбайны и другая техника (новые и б/у запчасти)</t>
+  </si>
+  <si>
+    <t>КВК-800, КЗС-1218 и другие комбайны Гомсельмаш</t>
+  </si>
+  <si>
+    <t>МТЗ-80/82/892 и др. тракторы (мосты, редукторы, трансмиссия)</t>
+  </si>
+  <si>
+    <t>Гидромоторы и гидронасосы John Deere</t>
+  </si>
+  <si>
+    <t>Бороны, сеялки, культиваторы, опрыскиватели, пресс-подборщики и др.</t>
+  </si>
+  <si>
+    <t>МТЗ-80/82, Беларус-82.1/82.2, 920, 952, 1221 и др.</t>
+  </si>
+  <si>
+    <t>Навесная техника, бороны, плуги, комбайны, импортные бренды</t>
+  </si>
+  <si>
+    <t>Тракторы МТЗ, техника Амкодор, автомобили МАЗ</t>
+  </si>
+  <si>
+    <t>МТЗ-80/82, 900/920/950/952, 1025, 1221, 1523 и др.</t>
+  </si>
+  <si>
+    <t>КВК-800, КСК-600, КЗС-1218 и др.</t>
+  </si>
+  <si>
+    <t>Бороны, дискаторы, комбайны, жатки, сеялки, пресс-подборщики и др.</t>
+  </si>
+  <si>
+    <t>Минитракторы CATMANN, навесное и прицепное оборудование</t>
+  </si>
+  <si>
+    <t>Амкодор (погрузчики), тракторы МТЗ, другая спецтехника</t>
+  </si>
+  <si>
+    <t>Амкодор 342, 352 и другая техника Амкодор</t>
+  </si>
+  <si>
+    <t>Почвообрабатывающая техника Quivogne</t>
+  </si>
+  <si>
+    <t>Опрыскиватели, разбрасыватели, прицепная техника Joskin</t>
+  </si>
+  <si>
+    <t>Каталоги МТЗ (тракторы, дизели, спецтехника)</t>
+  </si>
+  <si>
+    <t>МТЗ-80/82, 900/920/950/952, 1025, 1221 и др.</t>
+  </si>
+  <si>
+    <t>Тракторы Беларус (разные модели)</t>
+  </si>
+  <si>
+    <t>Мотоблоки и минитракторы разных брендов</t>
+  </si>
+  <si>
+    <t>Тракторы МТЗ разных моделей</t>
+  </si>
+  <si>
+    <t>Тракторы МТЗ (каталоги и схемы)</t>
   </si>
   <si>
     <t>Сводный архив КДС / PDF</t>
@@ -184,10 +286,40 @@
     <t>Платный PDF</t>
   </si>
   <si>
-    <t>Онлайн-каталог запчастей (Беларусь)</t>
-  </si>
-  <si>
-    <t>Онлайн-каталог запчастей</t>
+    <t>Интернет-магазин / каталог запчастей</t>
+  </si>
+  <si>
+    <t>Доска объявлений / поиск запчастей</t>
+  </si>
+  <si>
+    <t>Каталоги деталей и сборочных единиц (PDF, официальный сайт)</t>
+  </si>
+  <si>
+    <t>Каталоги для скачивания (PDF)</t>
+  </si>
+  <si>
+    <t>Каталог гидравлического оборудования</t>
+  </si>
+  <si>
+    <t>Каталоги деталей и сборочных единиц (онлайн-схемы)</t>
+  </si>
+  <si>
+    <t>Каталоги запчастей (перечень ссылок)</t>
+  </si>
+  <si>
+    <t>Каталог запчастей (оригинальные комплектующие)</t>
+  </si>
+  <si>
+    <t>Справка по каталогам МТЗ</t>
+  </si>
+  <si>
+    <t>Интернет-каталог деталей и сборочных единиц</t>
+  </si>
+  <si>
+    <t>Интернет-каталог запчастей</t>
+  </si>
+  <si>
+    <t>Каталоги запчастей и схемы</t>
   </si>
   <si>
     <t>Каталог тракторов МТЗ (архивы КДС по всем основным моделям)</t>
@@ -319,25 +451,82 @@
     <t>Weidemann Wheel Loader 3080 RL50 1.0 Spare Parts List (servicepartmanuals.com)</t>
   </si>
   <si>
-    <t>Запчасти для ИСРВ-12 от компании БелКормМаш, каталог позиций с наличием и ценами.</t>
-  </si>
-  <si>
-    <t>Запчасти к кормораздатчикам Бобруйскагромаш, включая ИСРВ-12, от БелКормМаш.</t>
-  </si>
-  <si>
-    <t>Удобный онлайн-каталог запчастей на ИСРВ-12 от Агромастер Плюс (агромастер).</t>
-  </si>
-  <si>
-    <t>Запчасти к кормораздатчикам Бобруйскагромаш, в т.ч. ИСРВ-12, от PoleAgro.</t>
-  </si>
-  <si>
-    <t>Каталог запчастей для Бобруйскагромаш ИСРВ-12 (isrv-12) от Autopiter.by.</t>
-  </si>
-  <si>
-    <t>Оригинальный каталог запчастей ИСРВ-12 на OPEX (Автокаталог ОРЕХ).</t>
-  </si>
-  <si>
-    <t>Онлайн-каталог запчастей ИСРВ-12 на AutoOpt / AutoOpt.ru.</t>
+    <t>ООО «ИнагротехБел» — запчасти к кормоуборочным и зерноуборочным комбайнам Гомсельмаш, подбор и заказ запчастей по моделям.</t>
+  </si>
+  <si>
+    <t>Partagro — крупный интернет-каталог запчастей для тракторов МТЗ, комбайнов и сельхозтехники по разделам.</t>
+  </si>
+  <si>
+    <t>«Отрана-Агро» — поставщик запчастей для сельхозтехники, в том числе Гомсельмаш и Ростсельмаш, с большим каталогом по разделам.</t>
+  </si>
+  <si>
+    <t>Раздел AV.by «Запчасти для сельхозтехники» — поиск новых и б/у запчастей по объявлениям по всей Беларуси.</t>
+  </si>
+  <si>
+    <t>Официальная страница Гомсельмаш с перечнем каталогов деталей и сборочных единиц по всем основным моделям комбайнов.</t>
+  </si>
+  <si>
+    <t>ОАО «БЗТДиА» — каталоги деталей и сборочных единиц мостов, редукторов и других узлов для тракторов МТЗ.</t>
+  </si>
+  <si>
+    <t>ASZ-Hydro — каталог гидромоторов и гидронасосов для техники John Deere, подбор по модели и артикулу.</t>
+  </si>
+  <si>
+    <t>Magro — интернет-магазин запчастей к сельхозтехнике (бороны, сеялки, культиваторы, опрыскиватели, прицепы, пресс-подборщики и др.).</t>
+  </si>
+  <si>
+    <t>L-AgroMTZ — специализированный каталог запчастей для тракторов МТЗ по системам и узлам с актуальными ценами.</t>
+  </si>
+  <si>
+    <t>ВелесТоргАгро — каталог запчастей к сельхозтехнике и расходных материалов, включая элементы для отечественной и импортной техники.</t>
+  </si>
+  <si>
+    <t>Агро НКА — каталог запчастей для тракторов МТЗ, техники Амкодор и автомобилей МАЗ, с подбором по разделам.</t>
+  </si>
+  <si>
+    <t>Агро НКА — справочный раздел с каталогами деталей и сборочных единиц к технике МТЗ (онлайн-схемы по моделям).</t>
+  </si>
+  <si>
+    <t>Агро НКА — раздел схем и каталогов деталей к кормо- и зерноуборочным комбайнам Гомсельмаш.</t>
+  </si>
+  <si>
+    <t>ТХК-Регион — большой перечень каталогов запчастей для отечественной и импортной сельхозтехники.</t>
+  </si>
+  <si>
+    <t>Catmann — каталог запчастей для минитракторов, навесного оборудования и другой малой сельхозтехники.</t>
+  </si>
+  <si>
+    <t>Техпромимпэкс (TPI.by) — каталог оригинальных запасных частей к технике Амкодор, МТЗ и др. машинам.</t>
+  </si>
+  <si>
+    <t>TPI.by — специализированный раздел запчастей к технике Амкодор (в том числе погрузчики 342/352).</t>
+  </si>
+  <si>
+    <t>Данаком — раздел оригинальных запчастей для техники Quivogne (почвообработка, прицепная техника).</t>
+  </si>
+  <si>
+    <t>Данаком — запчасти для техники Joskin (опрыскиватели, разбрасыватели, транспортная техника).</t>
+  </si>
+  <si>
+    <t>Справочная страница с каталогами МТЗ — ссылки на официальные каталоги деталей и сборочных единиц Минского тракторного завода.</t>
+  </si>
+  <si>
+    <t>Агроснабпоставка Плюс — каталог деталей и сборочных единиц МТЗ с удобной структурой по узлам и агрегатам.</t>
+  </si>
+  <si>
+    <t>AltayDizel — каталог запчастей к технике МТЗ/Беларус, в том числе моторы и трансмиссии.</t>
+  </si>
+  <si>
+    <t>Motoblok.by — каталог запчастей для мотоблоков и минитракторов с доставкой по Беларуси.</t>
+  </si>
+  <si>
+    <t>ООО «Вокруг техники» (remontservice.by) — каталог запасных частей к тракторам МТЗ.</t>
+  </si>
+  <si>
+    <t>АквилонАвто — каталог запчастей и схем для тракторов МТЗ.</t>
+  </si>
+  <si>
+    <t>Autopiter.by — каталог запчастей для тракторов МТЗ с ценами и подбором по моделям.</t>
   </si>
   <si>
     <t>https://www.vztzch.by/ru/katalog-traktorov-mtz</t>
@@ -469,25 +658,82 @@
     <t>https://servicepartmanuals.com/partmanual/weidemann-wheel-loader-3080-rl50-1-0-spare-parts-list-enites/</t>
   </si>
   <si>
-    <t>https://belkormmash.by/g5350722-zapchasti-dlya-isrv</t>
-  </si>
-  <si>
-    <t>https://belkormmash.by/g5334402-bobrujskagromash</t>
-  </si>
-  <si>
-    <t>https://agromasterplus.by/zapchasti/isrv_12/</t>
-  </si>
-  <si>
-    <t>https://poleagro.by/g8875733-zapchasti-kormorazdatchikam-bobrujskagromash/page_2</t>
-  </si>
-  <si>
-    <t>https://autopiter.by/russiancatalog/bobrujskagrommash/isrv-12</t>
-  </si>
-  <si>
-    <t>https://www.opex.ru/acat/selhoztehnika/bobrujskagromash__oao__ukh__bobrujskagromash__/isrv_12_2927/</t>
-  </si>
-  <si>
-    <t>https://www.autoopt.ru/auto/catalog/tractor/bam/isrv_12_2927</t>
+    <t>https://inagrotehbel.by/zapchasti/</t>
+  </si>
+  <si>
+    <t>https://partagro.by/catalog/</t>
+  </si>
+  <si>
+    <t>https://otrana.by/catalogue/</t>
+  </si>
+  <si>
+    <t>https://parts.av.by/agro</t>
+  </si>
+  <si>
+    <t>https://gomselmash.by/servis-zapchasti/zapasnye-chasti/</t>
+  </si>
+  <si>
+    <t>https://bztda.by/katalogi-dlya-skachivaniya.php</t>
+  </si>
+  <si>
+    <t>https://asz-hydro.by/catalog/john-deere</t>
+  </si>
+  <si>
+    <t>https://magro.by/catalog/?type=catalog</t>
+  </si>
+  <si>
+    <t>https://l-agromtz.by/catalog</t>
+  </si>
+  <si>
+    <t>https://veles-torg.by/catalog/</t>
+  </si>
+  <si>
+    <t>https://nka.by/catalog/</t>
+  </si>
+  <si>
+    <t>https://nka.by/scheme/selhoztehnika/mtz</t>
+  </si>
+  <si>
+    <t>https://nka.by/scheme/selhoztehnika/gomselmash</t>
+  </si>
+  <si>
+    <t>https://txk.by/catalogs.html</t>
+  </si>
+  <si>
+    <t>https://catmann.by/katalog/zapchasti-dlya-selhoztehniki</t>
+  </si>
+  <si>
+    <t>https://www.tpi.by/catalog/zapchasti/</t>
+  </si>
+  <si>
+    <t>https://www.tpi.by/catalog/parts-technics/amkodor/</t>
+  </si>
+  <si>
+    <t>https://danacom.by/catalog/zapasnye-chasti/torgovoj-marki-quivogne</t>
+  </si>
+  <si>
+    <t>https://danacom.by/catalog/zapasnye-chasti/zapchasti-joskin</t>
+  </si>
+  <si>
+    <t>https://avtootvet.by/g7968215-katalog-mtz</t>
+  </si>
+  <si>
+    <t>https://www.agro-snab.by/katalog</t>
+  </si>
+  <si>
+    <t>https://altaydizel.by/catalog/tekhnika-mtz-belarus/</t>
+  </si>
+  <si>
+    <t>https://motoblok.by/catalog/zapchasti_dlya_mini_traktorov_i_motoblokov/</t>
+  </si>
+  <si>
+    <t>https://remontservice.by/g5989216-zapasnye-chasti-traktoram</t>
+  </si>
+  <si>
+    <t>https://akvilonavto.by/catalog/katalog_zapchastey_skhemy/katalog_mtz/</t>
+  </si>
+  <si>
+    <t>https://autopiter.by/russiancatalog/mtz</t>
   </si>
 </sst>
 </file>
@@ -858,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -886,16 +1132,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -903,16 +1149,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -920,16 +1166,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -937,16 +1183,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -954,16 +1200,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -971,16 +1217,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -988,16 +1234,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1005,16 +1251,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1022,16 +1268,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1039,16 +1285,16 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1056,16 +1302,16 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1073,16 +1319,16 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1090,16 +1336,16 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1107,16 +1353,16 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1124,16 +1370,16 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1141,16 +1387,16 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1158,16 +1404,16 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1175,16 +1421,16 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1192,16 +1438,16 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1209,16 +1455,16 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1226,16 +1472,16 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1243,16 +1489,16 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1260,16 +1506,16 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1277,16 +1523,16 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1294,16 +1540,16 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1311,16 +1557,16 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>133</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1328,16 +1574,16 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1345,16 +1591,16 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1362,16 +1608,16 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>136</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1379,16 +1625,16 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>137</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1396,16 +1642,16 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1413,16 +1659,16 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1430,16 +1676,16 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1447,16 +1693,16 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1464,16 +1710,16 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1481,16 +1727,16 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>143</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1498,16 +1744,16 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1515,16 +1761,16 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1532,16 +1778,16 @@
         <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1549,16 +1795,16 @@
         <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1566,16 +1812,16 @@
         <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1583,16 +1829,16 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>149</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1600,16 +1846,16 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>150</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1617,67 +1863,67 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="D48" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1685,50 +1931,373 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
         <v>16</v>
       </c>
-      <c r="B51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" t="s">
         <v>157</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" t="s">
+        <v>162</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" t="s">
+        <v>163</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" t="s">
+        <v>164</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" t="s">
+        <v>100</v>
+      </c>
+      <c r="D66" t="s">
+        <v>166</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" t="s">
+        <v>167</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" t="s">
+        <v>168</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" t="s">
+        <v>169</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" t="s">
+        <v>170</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -1783,6 +2352,25 @@
     <hyperlink ref="E49" r:id="rId48"/>
     <hyperlink ref="E50" r:id="rId49"/>
     <hyperlink ref="E51" r:id="rId50"/>
+    <hyperlink ref="E52" r:id="rId51"/>
+    <hyperlink ref="E53" r:id="rId52"/>
+    <hyperlink ref="E54" r:id="rId53"/>
+    <hyperlink ref="E55" r:id="rId54"/>
+    <hyperlink ref="E56" r:id="rId55"/>
+    <hyperlink ref="E57" r:id="rId56"/>
+    <hyperlink ref="E58" r:id="rId57"/>
+    <hyperlink ref="E59" r:id="rId58"/>
+    <hyperlink ref="E60" r:id="rId59"/>
+    <hyperlink ref="E61" r:id="rId60"/>
+    <hyperlink ref="E62" r:id="rId61"/>
+    <hyperlink ref="E63" r:id="rId62"/>
+    <hyperlink ref="E64" r:id="rId63"/>
+    <hyperlink ref="E65" r:id="rId64"/>
+    <hyperlink ref="E66" r:id="rId65"/>
+    <hyperlink ref="E67" r:id="rId66"/>
+    <hyperlink ref="E68" r:id="rId67"/>
+    <hyperlink ref="E69" r:id="rId68"/>
+    <hyperlink ref="E70" r:id="rId69"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Каталоги_запчастей_ПроземлеАгро.xlsx
+++ b/Каталоги_запчастей_ПроземлеАгро.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="158">
   <si>
     <t>Группа техники</t>
   </si>
@@ -64,39 +64,6 @@
     <t>Weidemann</t>
   </si>
   <si>
-    <t>Гомсельмаш (КВК / КЗС)</t>
-  </si>
-  <si>
-    <t>МТЗ, комбайны, навесная техника</t>
-  </si>
-  <si>
-    <t>Сельхозтехника (разная)</t>
-  </si>
-  <si>
-    <t>МТЗ (узлы БЗТДиА)</t>
-  </si>
-  <si>
-    <t>Импортная техника (John Deere)</t>
-  </si>
-  <si>
-    <t>МТЗ, МАЗ, Амкодор</t>
-  </si>
-  <si>
-    <t>Минитрактора и навесная техника</t>
-  </si>
-  <si>
-    <t>Амкодор, МТЗ, дорожно-строительная техника</t>
-  </si>
-  <si>
-    <t>Импортная техника (Quivogne)</t>
-  </si>
-  <si>
-    <t>Импортная техника (Joskin)</t>
-  </si>
-  <si>
-    <t>Мотоблоки и минитракторы</t>
-  </si>
-  <si>
     <t>Беларус-82.1/82.2, 920/920.3/920.270, 952.2/952.3, 1221/1221В2-9, 1523, 3022/3022 ДЦ.1, 320/320.4, 1502.01</t>
   </si>
   <si>
@@ -184,79 +151,7 @@
     <t>Weidemann 3080 RL50 LPT</t>
   </si>
   <si>
-    <t>КВК-800-12 / 16 / 36, КЗС-1218 и др. комбайны Гомсельмаш</t>
-  </si>
-  <si>
-    <t>МТЗ-80/82, Беларус-82.1/82.2/920/952 и др., комбайны, посевная и почвообработка</t>
-  </si>
-  <si>
-    <t>Плуги, бороны, культиваторы, техника Гомсельмаш, Ростсельмаш и др.</t>
-  </si>
-  <si>
-    <t>Тракторы, комбайны и другая техника (новые и б/у запчасти)</t>
-  </si>
-  <si>
-    <t>КВК-800, КЗС-1218 и другие комбайны Гомсельмаш</t>
-  </si>
-  <si>
-    <t>МТЗ-80/82/892 и др. тракторы (мосты, редукторы, трансмиссия)</t>
-  </si>
-  <si>
-    <t>Гидромоторы и гидронасосы John Deere</t>
-  </si>
-  <si>
-    <t>Бороны, сеялки, культиваторы, опрыскиватели, пресс-подборщики и др.</t>
-  </si>
-  <si>
-    <t>МТЗ-80/82, Беларус-82.1/82.2, 920, 952, 1221 и др.</t>
-  </si>
-  <si>
-    <t>Навесная техника, бороны, плуги, комбайны, импортные бренды</t>
-  </si>
-  <si>
-    <t>Тракторы МТЗ, техника Амкодор, автомобили МАЗ</t>
-  </si>
-  <si>
-    <t>МТЗ-80/82, 900/920/950/952, 1025, 1221, 1523 и др.</t>
-  </si>
-  <si>
-    <t>КВК-800, КСК-600, КЗС-1218 и др.</t>
-  </si>
-  <si>
-    <t>Бороны, дискаторы, комбайны, жатки, сеялки, пресс-подборщики и др.</t>
-  </si>
-  <si>
-    <t>Минитракторы CATMANN, навесное и прицепное оборудование</t>
-  </si>
-  <si>
-    <t>Амкодор (погрузчики), тракторы МТЗ, другая спецтехника</t>
-  </si>
-  <si>
-    <t>Амкодор 342, 352 и другая техника Амкодор</t>
-  </si>
-  <si>
-    <t>Почвообрабатывающая техника Quivogne</t>
-  </si>
-  <si>
-    <t>Опрыскиватели, разбрасыватели, прицепная техника Joskin</t>
-  </si>
-  <si>
-    <t>Каталоги МТЗ (тракторы, дизели, спецтехника)</t>
-  </si>
-  <si>
-    <t>МТЗ-80/82, 900/920/950/952, 1025, 1221 и др.</t>
-  </si>
-  <si>
-    <t>Тракторы Беларус (разные модели)</t>
-  </si>
-  <si>
-    <t>Мотоблоки и минитракторы разных брендов</t>
-  </si>
-  <si>
-    <t>Тракторы МТЗ разных моделей</t>
-  </si>
-  <si>
-    <t>Тракторы МТЗ (каталоги и схемы)</t>
+    <t>LADA NIVA Legend</t>
   </si>
   <si>
     <t>Сводный архив КДС / PDF</t>
@@ -286,42 +181,6 @@
     <t>Платный PDF</t>
   </si>
   <si>
-    <t>Интернет-магазин / каталог запчастей</t>
-  </si>
-  <si>
-    <t>Доска объявлений / поиск запчастей</t>
-  </si>
-  <si>
-    <t>Каталоги деталей и сборочных единиц (PDF, официальный сайт)</t>
-  </si>
-  <si>
-    <t>Каталоги для скачивания (PDF)</t>
-  </si>
-  <si>
-    <t>Каталог гидравлического оборудования</t>
-  </si>
-  <si>
-    <t>Каталоги деталей и сборочных единиц (онлайн-схемы)</t>
-  </si>
-  <si>
-    <t>Каталоги запчастей (перечень ссылок)</t>
-  </si>
-  <si>
-    <t>Каталог запчастей (оригинальные комплектующие)</t>
-  </si>
-  <si>
-    <t>Справка по каталогам МТЗ</t>
-  </si>
-  <si>
-    <t>Интернет-каталог деталей и сборочных единиц</t>
-  </si>
-  <si>
-    <t>Интернет-каталог запчастей</t>
-  </si>
-  <si>
-    <t>Каталоги запчастей и схемы</t>
-  </si>
-  <si>
     <t>Каталог тракторов МТЗ (архивы КДС по всем основным моделям)</t>
   </si>
   <si>
@@ -451,82 +310,13 @@
     <t>Weidemann Wheel Loader 3080 RL50 1.0 Spare Parts List (servicepartmanuals.com)</t>
   </si>
   <si>
-    <t>ООО «ИнагротехБел» — запчасти к кормоуборочным и зерноуборочным комбайнам Гомсельмаш, подбор и заказ запчастей по моделям.</t>
-  </si>
-  <si>
-    <t>Partagro — крупный интернет-каталог запчастей для тракторов МТЗ, комбайнов и сельхозтехники по разделам.</t>
-  </si>
-  <si>
-    <t>«Отрана-Агро» — поставщик запчастей для сельхозтехники, в том числе Гомсельмаш и Ростсельмаш, с большим каталогом по разделам.</t>
-  </si>
-  <si>
-    <t>Раздел AV.by «Запчасти для сельхозтехники» — поиск новых и б/у запчастей по объявлениям по всей Беларуси.</t>
-  </si>
-  <si>
-    <t>Официальная страница Гомсельмаш с перечнем каталогов деталей и сборочных единиц по всем основным моделям комбайнов.</t>
-  </si>
-  <si>
-    <t>ОАО «БЗТДиА» — каталоги деталей и сборочных единиц мостов, редукторов и других узлов для тракторов МТЗ.</t>
-  </si>
-  <si>
-    <t>ASZ-Hydro — каталог гидромоторов и гидронасосов для техники John Deere, подбор по модели и артикулу.</t>
-  </si>
-  <si>
-    <t>Magro — интернет-магазин запчастей к сельхозтехнике (бороны, сеялки, культиваторы, опрыскиватели, прицепы, пресс-подборщики и др.).</t>
-  </si>
-  <si>
-    <t>L-AgroMTZ — специализированный каталог запчастей для тракторов МТЗ по системам и узлам с актуальными ценами.</t>
-  </si>
-  <si>
-    <t>ВелесТоргАгро — каталог запчастей к сельхозтехнике и расходных материалов, включая элементы для отечественной и импортной техники.</t>
-  </si>
-  <si>
-    <t>Агро НКА — каталог запчастей для тракторов МТЗ, техники Амкодор и автомобилей МАЗ, с подбором по разделам.</t>
-  </si>
-  <si>
-    <t>Агро НКА — справочный раздел с каталогами деталей и сборочных единиц к технике МТЗ (онлайн-схемы по моделям).</t>
-  </si>
-  <si>
-    <t>Агро НКА — раздел схем и каталогов деталей к кормо- и зерноуборочным комбайнам Гомсельмаш.</t>
-  </si>
-  <si>
-    <t>ТХК-Регион — большой перечень каталогов запчастей для отечественной и импортной сельхозтехники.</t>
-  </si>
-  <si>
-    <t>Catmann — каталог запчастей для минитракторов, навесного оборудования и другой малой сельхозтехники.</t>
-  </si>
-  <si>
-    <t>Техпромимпэкс (TPI.by) — каталог оригинальных запасных частей к технике Амкодор, МТЗ и др. машинам.</t>
-  </si>
-  <si>
-    <t>TPI.by — специализированный раздел запчастей к технике Амкодор (в том числе погрузчики 342/352).</t>
-  </si>
-  <si>
-    <t>Данаком — раздел оригинальных запчастей для техники Quivogne (почвообработка, прицепная техника).</t>
-  </si>
-  <si>
-    <t>Данаком — запчасти для техники Joskin (опрыскиватели, разбрасыватели, транспортная техника).</t>
-  </si>
-  <si>
-    <t>Справочная страница с каталогами МТЗ — ссылки на официальные каталоги деталей и сборочных единиц Минского тракторного завода.</t>
-  </si>
-  <si>
-    <t>Агроснабпоставка Плюс — каталог деталей и сборочных единиц МТЗ с удобной структурой по узлам и агрегатам.</t>
-  </si>
-  <si>
-    <t>AltayDizel — каталог запчастей к технике МТЗ/Беларус, в том числе моторы и трансмиссии.</t>
-  </si>
-  <si>
-    <t>Motoblok.by — каталог запчастей для мотоблоков и минитракторов с доставкой по Беларуси.</t>
-  </si>
-  <si>
-    <t>ООО «Вокруг техники» (remontservice.by) — каталог запасных частей к тракторам МТЗ.</t>
-  </si>
-  <si>
-    <t>АквилонАвто — каталог запчастей и схем для тракторов МТЗ.</t>
-  </si>
-  <si>
-    <t>Autopiter.by — каталог запчастей для тракторов МТЗ с ценами и подбором по моделям.</t>
+    <t>Каталог запчастей LADA Niva (Autoopt.ru, подбор по узлам и группам).</t>
+  </si>
+  <si>
+    <t>Онлайн-каталог деталей LADA Niva Legend (Navital.by, схемы и подбор по VIN/модели).</t>
+  </si>
+  <si>
+    <t>Официальный каталог деталей LADA Niva / Niva Legend (PDF, версия 01.2022).</t>
   </si>
   <si>
     <t>https://www.vztzch.by/ru/katalog-traktorov-mtz</t>
@@ -658,82 +448,46 @@
     <t>https://servicepartmanuals.com/partmanual/weidemann-wheel-loader-3080-rl50-1-0-spare-parts-list-enites/</t>
   </si>
   <si>
-    <t>https://inagrotehbel.by/zapchasti/</t>
-  </si>
-  <si>
-    <t>https://partagro.by/catalog/</t>
-  </si>
-  <si>
-    <t>https://otrana.by/catalogue/</t>
-  </si>
-  <si>
-    <t>https://parts.av.by/agro</t>
-  </si>
-  <si>
-    <t>https://gomselmash.by/servis-zapchasti/zapasnye-chasti/</t>
-  </si>
-  <si>
-    <t>https://bztda.by/katalogi-dlya-skachivaniya.php</t>
-  </si>
-  <si>
-    <t>https://asz-hydro.by/catalog/john-deere</t>
-  </si>
-  <si>
-    <t>https://magro.by/catalog/?type=catalog</t>
-  </si>
-  <si>
-    <t>https://l-agromtz.by/catalog</t>
-  </si>
-  <si>
-    <t>https://veles-torg.by/catalog/</t>
-  </si>
-  <si>
-    <t>https://nka.by/catalog/</t>
-  </si>
-  <si>
-    <t>https://nka.by/scheme/selhoztehnika/mtz</t>
-  </si>
-  <si>
-    <t>https://nka.by/scheme/selhoztehnika/gomselmash</t>
-  </si>
-  <si>
-    <t>https://txk.by/catalogs.html</t>
-  </si>
-  <si>
-    <t>https://catmann.by/katalog/zapchasti-dlya-selhoztehniki</t>
-  </si>
-  <si>
-    <t>https://www.tpi.by/catalog/zapchasti/</t>
-  </si>
-  <si>
-    <t>https://www.tpi.by/catalog/parts-technics/amkodor/</t>
-  </si>
-  <si>
-    <t>https://danacom.by/catalog/zapasnye-chasti/torgovoj-marki-quivogne</t>
-  </si>
-  <si>
-    <t>https://danacom.by/catalog/zapasnye-chasti/zapchasti-joskin</t>
-  </si>
-  <si>
-    <t>https://avtootvet.by/g7968215-katalog-mtz</t>
-  </si>
-  <si>
-    <t>https://www.agro-snab.by/katalog</t>
-  </si>
-  <si>
-    <t>https://altaydizel.by/catalog/tekhnika-mtz-belarus/</t>
-  </si>
-  <si>
-    <t>https://motoblok.by/catalog/zapchasti_dlya_mini_traktorov_i_motoblokov/</t>
-  </si>
-  <si>
-    <t>https://remontservice.by/g5989216-zapasnye-chasti-traktoram</t>
-  </si>
-  <si>
-    <t>https://akvilonavto.by/catalog/katalog_zapchastey_skhemy/katalog_mtz/</t>
-  </si>
-  <si>
-    <t>https://autopiter.by/russiancatalog/mtz</t>
+    <t>https://www.autoopt.ru/auto/catalog/car/vaz/vaz-21213-214i</t>
+  </si>
+  <si>
+    <t>https://navital.by/auto2dV2/?typeCatalog=CARS_NATIVE&amp;mark=VAZ&amp;action=groups&amp;model=60935</t>
+  </si>
+  <si>
+    <t>https://navital.by/catalog?man=63&amp;model=131&amp;modelVariant=32054&amp;carType=1</t>
+  </si>
+  <si>
+    <t>https://navital.by/catalog?man=63&amp;model=131&amp;modelVariant=127967&amp;carType=1</t>
+  </si>
+  <si>
+    <t>https://navital.by/catalog?man=63&amp;model=131&amp;modelVariant=127966&amp;carType=1</t>
+  </si>
+  <si>
+    <t>https://navital.by/catalog?man=63&amp;model=131&amp;modelVariant=3064&amp;carType=1</t>
+  </si>
+  <si>
+    <t>https://navital.by/catalog?man=63&amp;model=131&amp;modelVariant=128945&amp;carType=1</t>
+  </si>
+  <si>
+    <t>https://navital.by/catalog?man=63&amp;model=131&amp;modelVariant=3063&amp;carType=1</t>
+  </si>
+  <si>
+    <t>https://navital.by/catalog?man=63&amp;model=131&amp;modelVariant=5701&amp;carType=1</t>
+  </si>
+  <si>
+    <t>https://navital.by/catalog?man=63&amp;model=131&amp;modelVariant=16485&amp;carType=1</t>
+  </si>
+  <si>
+    <t>https://navital.by/catalog?man=63&amp;model=131&amp;modelVariant=12008&amp;carType=1</t>
+  </si>
+  <si>
+    <t>https://navital.by/catalog?man=63&amp;model=131&amp;modelVariant=5702&amp;carType=1</t>
+  </si>
+  <si>
+    <t>https://navital.by/catalog?man=63&amp;model=131&amp;modelVariant=17944&amp;carType=1</t>
+  </si>
+  <si>
+    <t>https://catalog.niva4x4.ru/pdf/niva_01.2022.pdf</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1132,16 +886,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1149,16 +903,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1166,16 +920,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1183,16 +937,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1200,16 +954,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1217,16 +971,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1234,16 +988,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1251,16 +1005,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1268,16 +1022,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1285,16 +1039,16 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1302,16 +1056,16 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>181</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1319,16 +1073,16 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1336,16 +1090,16 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1353,16 +1107,16 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1370,16 +1124,16 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1387,16 +1141,16 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1404,16 +1158,16 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>187</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1421,16 +1175,16 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1438,16 +1192,16 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1455,16 +1209,16 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1472,16 +1226,16 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1489,16 +1243,16 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1506,16 +1260,16 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1523,16 +1277,16 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1540,16 +1294,16 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1557,16 +1311,16 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>196</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1574,16 +1328,16 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1591,16 +1345,16 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>198</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1608,16 +1362,16 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
         <v>83</v>
       </c>
-      <c r="D30" t="s">
-        <v>130</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1625,16 +1379,16 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>200</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1642,16 +1396,16 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>201</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1659,16 +1413,16 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1676,16 +1430,16 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
         <v>47</v>
       </c>
-      <c r="C34" t="s">
-        <v>82</v>
-      </c>
       <c r="D34" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1693,16 +1447,16 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1710,16 +1464,16 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1727,16 +1481,16 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1744,16 +1498,16 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1761,16 +1515,16 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1778,16 +1532,16 @@
         <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1795,16 +1549,16 @@
         <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>210</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1812,16 +1566,16 @@
         <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1829,16 +1583,16 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
         <v>54</v>
       </c>
-      <c r="C43" t="s">
-        <v>89</v>
-      </c>
       <c r="D43" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1846,458 +1600,254 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>216</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>217</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>223</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C55" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>225</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="D57" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>226</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="D58" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>22</v>
-      </c>
-      <c r="B59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" t="s">
-        <v>159</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" t="s">
-        <v>160</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" t="s">
-        <v>90</v>
-      </c>
-      <c r="D61" t="s">
-        <v>161</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" t="s">
-        <v>97</v>
-      </c>
-      <c r="D62" t="s">
-        <v>162</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" t="s">
-        <v>97</v>
-      </c>
-      <c r="D63" t="s">
-        <v>163</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" t="s">
-        <v>98</v>
-      </c>
-      <c r="D64" t="s">
-        <v>164</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" t="s">
-        <v>165</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" t="s">
-        <v>100</v>
-      </c>
-      <c r="D66" t="s">
-        <v>166</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>26</v>
-      </c>
-      <c r="B67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" t="s">
-        <v>90</v>
-      </c>
-      <c r="D67" t="s">
-        <v>167</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" t="s">
-        <v>90</v>
-      </c>
-      <c r="D68" t="s">
-        <v>168</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" t="s">
-        <v>80</v>
-      </c>
-      <c r="C69" t="s">
-        <v>101</v>
-      </c>
-      <c r="D69" t="s">
-        <v>169</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" t="s">
-        <v>100</v>
-      </c>
-      <c r="D70" t="s">
-        <v>170</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>239</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2359,18 +1909,6 @@
     <hyperlink ref="E56" r:id="rId55"/>
     <hyperlink ref="E57" r:id="rId56"/>
     <hyperlink ref="E58" r:id="rId57"/>
-    <hyperlink ref="E59" r:id="rId58"/>
-    <hyperlink ref="E60" r:id="rId59"/>
-    <hyperlink ref="E61" r:id="rId60"/>
-    <hyperlink ref="E62" r:id="rId61"/>
-    <hyperlink ref="E63" r:id="rId62"/>
-    <hyperlink ref="E64" r:id="rId63"/>
-    <hyperlink ref="E65" r:id="rId64"/>
-    <hyperlink ref="E66" r:id="rId65"/>
-    <hyperlink ref="E67" r:id="rId66"/>
-    <hyperlink ref="E68" r:id="rId67"/>
-    <hyperlink ref="E69" r:id="rId68"/>
-    <hyperlink ref="E70" r:id="rId69"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
